--- a/trunk/WIP/Plan/XDev - Plan.xlsx
+++ b/trunk/WIP/Plan/XDev - Plan.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc301930511" localSheetId="0">Sheet1!$B$28</definedName>
+    <definedName name="_Toc301930511" localSheetId="0">Sheet1!$B$165</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="67">
   <si>
     <t>nhanld</t>
   </si>
@@ -168,9 +168,6 @@
     <t>6.1 - Login, Menu</t>
   </si>
   <si>
-    <t>Detail design (class, sequence diagram, pseudo-code)</t>
-  </si>
-  <si>
     <t>Pseudo-code</t>
   </si>
   <si>
@@ -193,6 +190,36 @@
   </si>
   <si>
     <t>Class, Sequence digaram</t>
+  </si>
+  <si>
+    <t>dungnm2</t>
+  </si>
+  <si>
+    <t>hant21</t>
+  </si>
+  <si>
+    <t>phongtv</t>
+  </si>
+  <si>
+    <t>Integrate modules</t>
+  </si>
+  <si>
+    <t>Merge modules</t>
+  </si>
+  <si>
+    <t>System test</t>
+  </si>
+  <si>
+    <t>Help documents</t>
+  </si>
+  <si>
+    <t>Prepare &amp; Learning</t>
+  </si>
+  <si>
+    <t>Design &amp; Implement module</t>
+  </si>
+  <si>
+    <t>Write help documents</t>
   </si>
 </sst>
 </file>
@@ -202,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +237,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +271,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -249,9 +296,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -262,9 +308,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,374 +613,1632 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="41" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="7" width="3.7109375" style="4" customWidth="1"/>
+    <col min="8" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="14" width="3.7109375" style="4" customWidth="1"/>
+    <col min="15" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="21" width="3.7109375" style="4" customWidth="1"/>
+    <col min="22" max="26" width="3.7109375" customWidth="1"/>
+    <col min="27" max="28" width="3.7109375" style="4" customWidth="1"/>
+    <col min="29" max="31" width="3.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" style="11" customWidth="1"/>
+    <col min="33" max="41" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="C1" s="1">
+    <row r="1" spans="1:41" s="7" customFormat="1">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9">
         <v>40870</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="9">
         <v>40871</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="9">
         <v>40872</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="9">
         <v>40873</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="9">
         <v>40874</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="9">
         <v>40875</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="9">
         <v>40876</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="9">
         <v>40877</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="9">
         <v>40878</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="9">
         <v>40879</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="9">
         <v>40880</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="9">
         <v>40881</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="9">
         <v>40882</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="9">
         <v>40883</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="9">
         <v>40884</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="9">
         <v>40885</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="9">
         <v>40886</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="9">
         <v>40887</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="9">
         <v>40888</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="9">
         <v>40889</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="9">
         <v>40890</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="9">
         <v>40891</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="9">
         <v>40892</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="9">
         <v>40893</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="9">
         <v>40894</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="9">
         <v>40895</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="9">
         <v>40896</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="9">
         <v>40897</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="9">
         <v>40898</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="10">
         <v>40899</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="9">
         <v>40900</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="9">
         <v>40901</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="9">
         <v>40902</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="9">
         <v>40903</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="9">
         <v>40904</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="9">
         <v>40905</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="9">
         <v>40906</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="9">
         <v>40907</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="9">
         <v>40908</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:41" s="4" customFormat="1" ht="26.25">
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="B7" s="2" t="s">
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="B8" s="2" t="s">
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9" t="s">
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" s="5" customFormat="1" ht="30">
-      <c r="B10" s="6" t="s">
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" s="4" customFormat="1" ht="52.5">
+      <c r="B11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" s="11"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:41">
-      <c r="A11" t="s">
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="30">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X52">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="B60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="B61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="B63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="B65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="B67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="B68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="B69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="B71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="B72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="B73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q74">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="30">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="B76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="B77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="B78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S78">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="B79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S79">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="B80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="B81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="B82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V82">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="B83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V83">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="30">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="B85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="B86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="B87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K87">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="B88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K88">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="B89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L89">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="B90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L90">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="B91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L91">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="B92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L92">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="30">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="B94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O94">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="B95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="B96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="B97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P97">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="B98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q98">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="B99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="B100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q100">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="B101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q101">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="B103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="B104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="B105" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S105">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="B106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S106">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="B107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V107">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="B108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V108">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="B109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V109">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="B110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V110">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="B112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="B113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="B114" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K114">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="B115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K115">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="B116" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L116">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="B117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L117">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="B118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L118">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="B119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L119">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="B121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="B122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="B123" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P123">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="B124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P124">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="B125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q125">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="B126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q126">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="B127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q127">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="B128" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q128">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="30">
+      <c r="A129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="B130" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R130">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="B131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R131">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
+      <c r="B132" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S132">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="B133" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S133">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="B134" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V134">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="B135" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V135">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="B136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V136">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
+      <c r="B137" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V137">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="30">
+      <c r="A138" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
+      <c r="B139" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="B140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W140">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="B141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X141">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="B142" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X142">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="B143" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y143">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="B144" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y144">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="B145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y145">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="B146" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y146">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11">
+      <c r="B147" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="B148" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O148">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="B149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O149">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="B150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P150">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="B151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P151">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="B152" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q152">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="B153" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q153">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="B154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q154">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="B155" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q155">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="B157" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="B158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R158">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="B159" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S159">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="B160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S160">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:32">
+      <c r="B161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V161">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:32">
+      <c r="B162" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V162">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:32">
+      <c r="B163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V163">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:32">
+      <c r="B164" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V164">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:32">
+      <c r="A165" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32">
+      <c r="B166" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W166">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32">
+      <c r="B167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W167">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32">
+      <c r="B168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X168">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32">
+      <c r="B169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X169">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32">
+      <c r="B170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y170">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32">
+      <c r="B171" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y171">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32">
+      <c r="B172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y172">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:32">
+      <c r="B173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y173">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:32" s="4" customFormat="1" ht="26.25">
+      <c r="B174" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF174" s="11"/>
+    </row>
+    <row r="175" spans="1:32">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z175">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" ht="30">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" ht="30">
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" ht="30">
-      <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" ht="30">
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="30">
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="30">
-      <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="30">
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="30">
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="30">
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>56</v>
+    </row>
+    <row r="176" spans="1:32">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" s="4" customFormat="1" ht="26.25">
+      <c r="B177" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF177" s="11"/>
+    </row>
+    <row r="178" spans="1:32">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD178">
+        <v>1</v>
+      </c>
+      <c r="AE178">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/WIP/Plan/XDev - Plan.xlsx
+++ b/trunk/WIP/Plan/XDev - Plan.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Convention" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc301930511" localSheetId="0">Sheet1!$B$165</definedName>
+    <definedName name="_Toc301930511" localSheetId="0">Plan!$B$165</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -2251,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>

--- a/trunk/WIP/Plan/XDev - Plan.xlsx
+++ b/trunk/WIP/Plan/XDev - Plan.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Convention" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc301930511" localSheetId="0">Plan!$B$165</definedName>
@@ -615,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -2251,7 +2250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -2336,16 +2335,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>